--- a/examples/sources/data/unsolved/to_schedule/2019-02-08.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-02-08.xlsx
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -5164,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="M98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -5413,7 +5413,7 @@
         <v>1</v>
       </c>
       <c r="N104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O104" s="2">
         <v>43504</v>
@@ -5768,7 +5768,7 @@
         <v>1</v>
       </c>
       <c r="N112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O112" s="2">
         <v>43504</v>
@@ -5979,7 +5979,7 @@
         <v>0</v>
       </c>
       <c r="M117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N117">
         <v>1</v>
@@ -6064,7 +6064,7 @@
         <v>1</v>
       </c>
       <c r="N119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O119" s="2">
         <v>43504</v>
@@ -6811,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="N137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O137" s="2">
         <v>43504</v>
@@ -6849,7 +6849,7 @@
         <v>0</v>
       </c>
       <c r="M138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N138">
         <v>1</v>
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="M150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N150">
         <v>1</v>
@@ -7485,7 +7485,7 @@
         <v>1</v>
       </c>
       <c r="N153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O153" s="2">
         <v>43504</v>
